--- a/examples/sample_example.xlsx
+++ b/examples/sample_example.xlsx
@@ -5,23 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Documents\eclipse\apstools\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3C8A48-5C8B-4487-B60B-D36577BA2A26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D880A589-6119-457A-ADF0-54F15CC84E1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26505" yWindow="1380" windowWidth="20610" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="1950" windowWidth="20610" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample data" sheetId="1" r:id="rId1"/>
     <sheet name="demo" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="example_code">demo!$B$5:$B$9</definedName>
+    <definedName name="example_output">demo!$B$12:$B$16</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Example of Sample positions</t>
   </si>
@@ -126,6 +130,48 @@
   </si>
   <si>
     <t>this will be ignored (and also the next blank row will be ignored)</t>
+  </si>
+  <si>
+    <t>should ignore this row</t>
+  </si>
+  <si>
+    <t>should ignore this column</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>radiograph</t>
+  </si>
+  <si>
+    <t>steel alloy</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>should ignore this table</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>&lt;--- MUST leave this column empty</t>
+  </si>
+  <si>
+    <t>^^^ MUST leave this row empty</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -227,6 +273,30 @@
     <tableColumn id="7" xr3:uid="{48D04D1E-1811-4669-9402-D76FE8609231}" name="code number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A262E988-E93D-43C7-BF4E-D504DDE1799F}" name="Table2" displayName="Table2" ref="J6:M9" totalsRowShown="0">
+  <autoFilter ref="J6:M9" xr:uid="{727B3386-AF78-4286-8367-631F16E1B767}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0D6716CE-19E3-4B46-ABB2-B077B88F56FA}" name="action"/>
+    <tableColumn id="2" xr3:uid="{1F495691-71BE-4CBE-B999-FF56C2F3E71F}" name="sx"/>
+    <tableColumn id="3" xr3:uid="{BE5E0B3D-751F-41FA-B5D8-05C1DCFE7507}" name="sy"/>
+    <tableColumn id="4" xr3:uid="{AED9D333-3CC7-48F3-88A7-E80C73810562}" name="sample"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A5E4AA92-4D74-44FB-A6A7-2C924892F74F}" name="Table3" displayName="Table3" ref="D5:E7" totalsRowShown="0">
+  <autoFilter ref="D5:E7" xr:uid="{DA00A524-1030-49C4-BE55-5E30205CFC17}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{68522FA4-47EA-4D7C-AF23-1241DF490EC9}" name="A"/>
+    <tableColumn id="2" xr3:uid="{205CE0DC-800F-4EF2-A4A1-63C29BFECACC}" name="B"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -527,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,9 +610,10 @@
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -551,7 +622,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -559,13 +630,16 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -587,8 +661,11 @@
       <c r="G4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -607,8 +684,11 @@
       <c r="F5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -627,13 +707,42 @@
       <c r="F6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -652,8 +761,14 @@
       <c r="F9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -671,6 +786,14 @@
       </c>
       <c r="G10" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -678,81 +801,104 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E47752-DDFC-4A61-AEC7-8FEA20C684E3}">
-  <dimension ref="A3:B20"/>
+  <dimension ref="A3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
@@ -777,5 +923,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>